--- a/Sasini tea and coffee limited.xlsx
+++ b/Sasini tea and coffee limited.xlsx
@@ -9,10 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="products" sheetId="2" r:id="rId1"/>
+    <sheet name="plantations" sheetId="1" r:id="rId2"/>
+    <sheet name="processing" sheetId="9" r:id="rId3"/>
+    <sheet name="warehouse" sheetId="7" r:id="rId4"/>
+    <sheet name="branches" sheetId="4" r:id="rId5"/>
+    <sheet name="departments" sheetId="3" r:id="rId6"/>
+    <sheet name="employees" sheetId="5" r:id="rId7"/>
+    <sheet name="payroll" sheetId="6" r:id="rId8"/>
+    <sheet name="customers" sheetId="8" r:id="rId9"/>
+    <sheet name="purchases" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,6 +30,176 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Avocado</t>
+  </si>
+  <si>
+    <t>Macadamia nuts</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Marketting</t>
+  </si>
+  <si>
+    <t>Product development</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>branch id</t>
+  </si>
+  <si>
+    <t>employee's name</t>
+  </si>
+  <si>
+    <t>department id</t>
+  </si>
+  <si>
+    <t>employee's id</t>
+  </si>
+  <si>
+    <t>payment date</t>
+  </si>
+  <si>
+    <t>Net pay amount (KES)</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>warehouse name</t>
+  </si>
+  <si>
+    <t>product id</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>locals</t>
+  </si>
+  <si>
+    <t>foreigners</t>
+  </si>
+  <si>
+    <t>plantation id</t>
+  </si>
+  <si>
+    <t>Sotik</t>
+  </si>
+  <si>
+    <t>Kiambu</t>
+  </si>
+  <si>
+    <t>Nandi</t>
+  </si>
+  <si>
+    <t>kiambu</t>
+  </si>
+  <si>
+    <t>kipkebe</t>
+  </si>
+  <si>
+    <t>Mombasa road</t>
+  </si>
+  <si>
+    <t>Bomet</t>
+  </si>
+  <si>
+    <t>Nyeri</t>
+  </si>
+  <si>
+    <t>sasini millers</t>
+  </si>
+  <si>
+    <t>nyeri coffee millers</t>
+  </si>
+  <si>
+    <t>processing id</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>Mombasa</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Alison</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Diamante</t>
+  </si>
+  <si>
+    <t>Marylene</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>branch location</t>
+  </si>
+  <si>
+    <t>customer id</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>price( per tonne) ksh</t>
+  </si>
+  <si>
+    <t>weight(tonnes)</t>
+  </si>
+  <si>
+    <t>paid and delivered</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,8 +233,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +516,838 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>37740</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1">
+        <v>37845</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>37872</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1">
+        <v>37876</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>37832</v>
+      </c>
+      <c r="D2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>37832</v>
+      </c>
+      <c r="D3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>37832</v>
+      </c>
+      <c r="D4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>37832</v>
+      </c>
+      <c r="D5">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>37832</v>
+      </c>
+      <c r="D6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>37832</v>
+      </c>
+      <c r="D7">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>37832</v>
+      </c>
+      <c r="D8">
+        <v>300000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>